--- a/backend/contact_submissions.xlsx
+++ b/backend/contact_submissions.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -421,7 +421,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-06-02T06:36:56.244Z</v>
+        <v>2025-06-02T09:24:53.602Z</v>
       </c>
       <c r="B2" t="str">
         <v>Johnson S</v>
@@ -433,46 +433,12 @@
         <v>Jbuilders</v>
       </c>
       <c r="E2" t="str">
-        <v>SEO and DM</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-06-02T06:42:41.433Z</v>
-      </c>
-      <c r="B3" t="str">
-        <v>myfrax_portal</v>
-      </c>
-      <c r="C3" t="str">
-        <v>fraxionedowner@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>FRAX</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Marketing</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-06-02T06:54:50.017Z</v>
-      </c>
-      <c r="B4" t="str">
-        <v>fraxioned_integration</v>
-      </c>
-      <c r="C4" t="str">
-        <v>jmelvinmelu113@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Tring</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Hello</v>
+        <v>HI</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>